--- a/Datos.xlsx
+++ b/Datos.xlsx
@@ -434,7 +434,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
